--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N2">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O2">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P2">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q2">
-        <v>14.50558672710793</v>
+        <v>1.171497766531111</v>
       </c>
       <c r="R2">
-        <v>14.50558672710793</v>
+        <v>10.54347989878</v>
       </c>
       <c r="S2">
-        <v>0.002169272009582779</v>
+        <v>0.0001528856541167787</v>
       </c>
       <c r="T2">
-        <v>0.002169272009582779</v>
+        <v>0.0001528856541167788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.218616446209675</v>
+        <v>5.524447333333334</v>
       </c>
       <c r="N3">
-        <v>0.218616446209675</v>
+        <v>16.573342</v>
       </c>
       <c r="O3">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872883</v>
       </c>
       <c r="P3">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872881</v>
       </c>
       <c r="Q3">
-        <v>0.5848232148678429</v>
+        <v>48.19449222299622</v>
       </c>
       <c r="R3">
-        <v>0.5848232148678429</v>
+        <v>433.750430006966</v>
       </c>
       <c r="S3">
-        <v>8.745876016143495E-05</v>
+        <v>0.006289594977339726</v>
       </c>
       <c r="T3">
-        <v>8.745876016143495E-05</v>
+        <v>0.006289594977339726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1057.59239341469</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>1057.59239341469</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.42242465730978</v>
+        <v>0.176245</v>
       </c>
       <c r="N4">
-        <v>5.42242465730978</v>
+        <v>0.528735</v>
       </c>
       <c r="O4">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="P4">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="Q4">
-        <v>5734.71507143508</v>
+        <v>1.537536294461666</v>
       </c>
       <c r="R4">
-        <v>5734.71507143508</v>
+        <v>13.837826650155</v>
       </c>
       <c r="S4">
-        <v>0.8576114238901178</v>
+        <v>0.0002006553053900486</v>
       </c>
       <c r="T4">
-        <v>0.8576114238901178</v>
+        <v>0.0002006553053900487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1057.59239341469</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>1057.59239341469</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.218616446209675</v>
+        <v>0.399908</v>
       </c>
       <c r="N5">
-        <v>0.218616446209675</v>
+        <v>1.199724</v>
       </c>
       <c r="O5">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="P5">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="Q5">
-        <v>231.207090586704</v>
+        <v>3.488740471761333</v>
       </c>
       <c r="R5">
-        <v>231.207090586704</v>
+        <v>31.398664245852</v>
       </c>
       <c r="S5">
-        <v>0.03457640697080609</v>
+        <v>0.0004552961041046474</v>
       </c>
       <c r="T5">
-        <v>0.03457640697080609</v>
+        <v>0.0004552961041046475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.653441485430622</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H6">
-        <v>0.653441485430622</v>
+        <v>3195.000976</v>
       </c>
       <c r="I6">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J6">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N6">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O6">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P6">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q6">
-        <v>3.543237222708134</v>
+        <v>143.0153436879289</v>
       </c>
       <c r="R6">
-        <v>3.543237222708134</v>
+        <v>1287.13809319136</v>
       </c>
       <c r="S6">
-        <v>0.000529881725926231</v>
+        <v>0.01866413662333199</v>
       </c>
       <c r="T6">
-        <v>0.000529881725926231</v>
+        <v>0.01866413662333199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.653441485430622</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H7">
-        <v>0.653441485430622</v>
+        <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J7">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.218616446209675</v>
+        <v>5.524447333333334</v>
       </c>
       <c r="N7">
-        <v>0.218616446209675</v>
+        <v>16.573342</v>
       </c>
       <c r="O7">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872883</v>
       </c>
       <c r="P7">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872881</v>
       </c>
       <c r="Q7">
-        <v>0.1428530553508137</v>
+        <v>5883.538207286867</v>
       </c>
       <c r="R7">
-        <v>0.1428530553508137</v>
+        <v>52951.8438655818</v>
       </c>
       <c r="S7">
-        <v>2.136329541753625E-05</v>
+        <v>0.7678278295020757</v>
       </c>
       <c r="T7">
-        <v>2.136329541753625E-05</v>
+        <v>0.7678278295020757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.65909260665672</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>1.65909260665672</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.001399615053159756</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.001399615053159756</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.42242465730978</v>
+        <v>0.176245</v>
       </c>
       <c r="N8">
-        <v>5.42242465730978</v>
+        <v>0.528735</v>
       </c>
       <c r="O8">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="P8">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="Q8">
-        <v>8.996304659095754</v>
+        <v>187.7009823383733</v>
       </c>
       <c r="R8">
-        <v>8.996304659095754</v>
+        <v>1689.30884104536</v>
       </c>
       <c r="S8">
-        <v>0.001345373493247624</v>
+        <v>0.02449581064771245</v>
       </c>
       <c r="T8">
-        <v>0.001345373493247624</v>
+        <v>0.02449581064771245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.65909260665672</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>1.65909260665672</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.001399615053159756</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.001399615053159756</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.218616446209675</v>
+        <v>0.399908</v>
       </c>
       <c r="N9">
-        <v>0.218616446209675</v>
+        <v>1.199724</v>
       </c>
       <c r="O9">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="P9">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="Q9">
-        <v>0.3627049296000383</v>
+        <v>425.9021501034027</v>
       </c>
       <c r="R9">
-        <v>0.3627049296000383</v>
+        <v>3833.119350930624</v>
       </c>
       <c r="S9">
-        <v>5.424155991213226E-05</v>
+        <v>0.05558211946157559</v>
       </c>
       <c r="T9">
-        <v>5.424155991213226E-05</v>
+        <v>0.0555821194615756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.114816711759854</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H10">
-        <v>0.114816711759854</v>
+        <v>2.535211</v>
       </c>
       <c r="I10">
-        <v>9.685969154984395E-05</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J10">
-        <v>9.685969154984395E-05</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N10">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O10">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P10">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q10">
-        <v>0.6225849689178622</v>
+        <v>0.1134816781622222</v>
       </c>
       <c r="R10">
-        <v>0.6225849689178622</v>
+        <v>1.02133510346</v>
       </c>
       <c r="S10">
-        <v>9.310593029212488E-05</v>
+        <v>1.480986229062551E-05</v>
       </c>
       <c r="T10">
-        <v>9.310593029212488E-05</v>
+        <v>1.480986229062551E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.114816711759854</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H11">
-        <v>0.114816711759854</v>
+        <v>2.535211</v>
       </c>
       <c r="I11">
-        <v>9.685969154984395E-05</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J11">
-        <v>9.685969154984395E-05</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.218616446209675</v>
+        <v>5.524447333333334</v>
       </c>
       <c r="N11">
-        <v>0.218616446209675</v>
+        <v>16.573342</v>
       </c>
       <c r="O11">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872883</v>
       </c>
       <c r="P11">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872881</v>
       </c>
       <c r="Q11">
-        <v>0.02510082149041988</v>
+        <v>4.668546549462445</v>
       </c>
       <c r="R11">
-        <v>0.02510082149041988</v>
+        <v>42.016918945162</v>
       </c>
       <c r="S11">
-        <v>3.753761257719072E-06</v>
+        <v>0.0006092660296764137</v>
       </c>
       <c r="T11">
-        <v>3.753761257719072E-06</v>
+        <v>0.0006092660296764136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.697230412684</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H12">
-        <v>122.697230412684</v>
+        <v>2.535211</v>
       </c>
       <c r="I12">
-        <v>0.1035077186032785</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J12">
-        <v>0.1035077186032785</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>5.42242465730978</v>
+        <v>0.176245</v>
       </c>
       <c r="N12">
-        <v>5.42242465730978</v>
+        <v>0.528735</v>
       </c>
       <c r="O12">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="P12">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="Q12">
-        <v>665.3164875733571</v>
+        <v>0.1489394208983333</v>
       </c>
       <c r="R12">
-        <v>665.3164875733571</v>
+        <v>1.340454788085</v>
       </c>
       <c r="S12">
-        <v>0.09949631553404684</v>
+        <v>1.94372549725311E-05</v>
       </c>
       <c r="T12">
-        <v>0.09949631553404684</v>
+        <v>1.94372549725311E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.697230412684</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H13">
-        <v>122.697230412684</v>
+        <v>2.535211</v>
       </c>
       <c r="I13">
-        <v>0.1035077186032785</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J13">
-        <v>0.1035077186032785</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.218616446209675</v>
+        <v>0.399908</v>
       </c>
       <c r="N13">
-        <v>0.218616446209675</v>
+        <v>1.199724</v>
       </c>
       <c r="O13">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="P13">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="Q13">
-        <v>26.82363247259063</v>
+        <v>0.3379503868626666</v>
       </c>
       <c r="R13">
-        <v>26.82363247259063</v>
+        <v>3.041553481764</v>
       </c>
       <c r="S13">
-        <v>0.004011403069231644</v>
+        <v>4.410402429319962E-05</v>
       </c>
       <c r="T13">
-        <v>0.004011403069231644</v>
+        <v>4.410402429319962E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.780731666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.342195</v>
+      </c>
+      <c r="I14">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="J14">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.40286</v>
+      </c>
+      <c r="O14">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P14">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q14">
+        <v>0.2391285197444445</v>
+      </c>
+      <c r="R14">
+        <v>2.1521566777</v>
+      </c>
+      <c r="S14">
+        <v>3.120733235997642E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.120733235997642E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.780731666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.342195</v>
+      </c>
+      <c r="I15">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="J15">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N15">
+        <v>16.573342</v>
+      </c>
+      <c r="O15">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P15">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q15">
+        <v>9.83755830729889</v>
+      </c>
+      <c r="R15">
+        <v>88.53802476569001</v>
+      </c>
+      <c r="S15">
+        <v>0.001283844988605362</v>
+      </c>
+      <c r="T15">
+        <v>0.001283844988605362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.780731666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.342195</v>
+      </c>
+      <c r="I16">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="J16">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.176245</v>
+      </c>
+      <c r="N16">
+        <v>0.528735</v>
+      </c>
+      <c r="O16">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P16">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q16">
+        <v>0.3138450525916667</v>
+      </c>
+      <c r="R16">
+        <v>2.824605473325</v>
+      </c>
+      <c r="S16">
+        <v>4.095817126384384E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.095817126384384E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.780731666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.342195</v>
+      </c>
+      <c r="I17">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="J17">
+        <v>0.001448946464051256</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.399908</v>
+      </c>
+      <c r="N17">
+        <v>1.199724</v>
+      </c>
+      <c r="O17">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P17">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q17">
+        <v>0.7121288393533334</v>
+      </c>
+      <c r="R17">
+        <v>6.40915955418</v>
+      </c>
+      <c r="S17">
+        <v>9.293597182207303E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.293597182207303E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.752533</v>
+      </c>
+      <c r="I18">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J18">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.40286</v>
+      </c>
+      <c r="O18">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P18">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q18">
+        <v>0.03368504937555555</v>
+      </c>
+      <c r="R18">
+        <v>0.30316544438</v>
+      </c>
+      <c r="S18">
+        <v>4.396048336470333E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.396048336470333E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.752533</v>
+      </c>
+      <c r="I19">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J19">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.573342</v>
+      </c>
+      <c r="O19">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P19">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q19">
+        <v>1.385776308365111</v>
+      </c>
+      <c r="R19">
+        <v>12.471986775286</v>
+      </c>
+      <c r="S19">
+        <v>0.0001808499541499625</v>
+      </c>
+      <c r="T19">
+        <v>0.0001808499541499625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.752533</v>
+      </c>
+      <c r="I20">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J20">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.176245</v>
+      </c>
+      <c r="N20">
+        <v>0.528735</v>
+      </c>
+      <c r="O20">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P20">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q20">
+        <v>0.04421005952833333</v>
+      </c>
+      <c r="R20">
+        <v>0.397890535755</v>
+      </c>
+      <c r="S20">
+        <v>5.769608839754856E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.769608839754856E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.752533</v>
+      </c>
+      <c r="I21">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J21">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.399908</v>
+      </c>
+      <c r="N21">
+        <v>1.199724</v>
+      </c>
+      <c r="O21">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P21">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q21">
+        <v>0.1003146556546667</v>
+      </c>
+      <c r="R21">
+        <v>0.902831900892</v>
+      </c>
+      <c r="S21">
+        <v>1.309150745773602E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.309150745773602E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>152.382926</v>
+      </c>
+      <c r="H22">
+        <v>457.148778</v>
+      </c>
+      <c r="I22">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J22">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.40286</v>
+      </c>
+      <c r="O22">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P22">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q22">
+        <v>20.46299518945333</v>
+      </c>
+      <c r="R22">
+        <v>184.16695670508</v>
+      </c>
+      <c r="S22">
+        <v>0.002670511625465389</v>
+      </c>
+      <c r="T22">
+        <v>0.002670511625465389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>152.382926</v>
+      </c>
+      <c r="H23">
+        <v>457.148778</v>
+      </c>
+      <c r="I23">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J23">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N23">
+        <v>16.573342</v>
+      </c>
+      <c r="O23">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P23">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q23">
+        <v>841.8314491862307</v>
+      </c>
+      <c r="R23">
+        <v>7576.483042676076</v>
+      </c>
+      <c r="S23">
+        <v>0.1098627376354411</v>
+      </c>
+      <c r="T23">
+        <v>0.1098627376354411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>152.382926</v>
+      </c>
+      <c r="H24">
+        <v>457.148778</v>
+      </c>
+      <c r="I24">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J24">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.176245</v>
+      </c>
+      <c r="N24">
+        <v>0.528735</v>
+      </c>
+      <c r="O24">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P24">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q24">
+        <v>26.85672879287</v>
+      </c>
+      <c r="R24">
+        <v>241.71055913583</v>
+      </c>
+      <c r="S24">
+        <v>0.003504922216875446</v>
+      </c>
+      <c r="T24">
+        <v>0.003504922216875446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>152.382926</v>
+      </c>
+      <c r="H25">
+        <v>457.148778</v>
+      </c>
+      <c r="I25">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J25">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.399908</v>
+      </c>
+      <c r="N25">
+        <v>1.199724</v>
+      </c>
+      <c r="O25">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P25">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q25">
+        <v>60.939151170808</v>
+      </c>
+      <c r="R25">
+        <v>548.4523605372719</v>
+      </c>
+      <c r="S25">
+        <v>0.007952829492503196</v>
+      </c>
+      <c r="T25">
+        <v>0.007952829492503198</v>
       </c>
     </row>
   </sheetData>
